--- a/Main Board/BOM-MB-Rev2b.xlsx
+++ b/Main Board/BOM-MB-Rev2b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Circuits\Altium\CurveTracer\MainBoard\Rev2\Project Outputs for MainBoardRev2b\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Main Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C447C7DC-BDAF-41C7-869D-C0AF2FEEDD19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C447C7DC-BDAF-41C7-869D-C0AF2FEEDD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="8850" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="14055" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
   </bookViews>
   <sheets>
     <sheet name="MainBoardRev2" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MainBoardRev2!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3319,26 +3319,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141DE95B-5139-4F8A-9CCE-A913B8066809}">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.578125" customWidth="1"/>
-    <col min="2" max="2" width="27.5234375" customWidth="1"/>
-    <col min="3" max="3" width="37.1015625" customWidth="1"/>
-    <col min="4" max="4" width="7.7890625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7890625" customWidth="1"/>
-    <col min="6" max="6" width="7.89453125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="26.41796875" customWidth="1"/>
-    <col min="8" max="8" width="20.3671875" customWidth="1"/>
-    <col min="9" max="9" width="24.5234375" customWidth="1"/>
-    <col min="10" max="10" width="9.9453125" customWidth="1"/>
-    <col min="11" max="11" width="30.47265625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
@@ -3353,7 +3353,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3366,7 +3366,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>576</v>
       </c>
@@ -3383,7 +3383,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>651</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>631</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>633</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>573</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>573</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>566</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>566</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>569</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>566</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>566</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>566</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>566</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>627</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>629</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>574</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>569</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>568</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>569</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>568</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>568</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>571</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>568</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>566</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>572</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>636</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>575</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>568</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>565</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>566</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>566</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>568</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>649</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>566</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>569</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>566</v>
       </c>
@@ -4553,7 +4553,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>634</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>566</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>567</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>570</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>566</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>566</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>566</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>566</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>566</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>566</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>566</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>568</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>566</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>566</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>569</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>566</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>566</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>566</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>568</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>566</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>571</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>569</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>566</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>572</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>568</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>568</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>566</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>566</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>566</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>566</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>566</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>566</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>566</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>566</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>568</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>566</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>566</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5765,7 +5765,7 @@
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5780,7 +5780,7 @@
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>3</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>1</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>2</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>1</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>6</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>4</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>2</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>1</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>7</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>1</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>1</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>1</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>2</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>2</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>2</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>1</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>4</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>5</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>1</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>1</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>2</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>1</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>1</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>1</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>1</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>1</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>1</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>2</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>1</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>1</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>1</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>2</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>1</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>1</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>1</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>26</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -6941,7 +6941,7 @@
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>

--- a/Main Board/BOM-MB-Rev2b.xlsx
+++ b/Main Board/BOM-MB-Rev2b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Main Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C447C7DC-BDAF-41C7-869D-C0AF2FEEDD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C447C7DC-BDAF-41C7-869D-C0AF2FEEDD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8218EDA-C958-47CA-BC2D-144AD931471B}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="14055" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
+    <workbookView xWindow="2850" yWindow="2850" windowWidth="21600" windowHeight="14055" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
   </bookViews>
   <sheets>
     <sheet name="MainBoardRev2" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="656">
   <si>
     <t>Quantity</t>
   </si>
@@ -1602,15 +1602,6 @@
     <t>TL431</t>
   </si>
   <si>
-    <t>Diodes Zetex</t>
-  </si>
-  <si>
-    <t>ZTL431BFFTA</t>
-  </si>
-  <si>
-    <t>ZTL431BFFCT-ND</t>
-  </si>
-  <si>
     <t>U50</t>
   </si>
   <si>
@@ -2900,13 +2891,19 @@
   </si>
   <si>
     <t>RMCF1206FT3322F</t>
+  </si>
+  <si>
+    <t>LM431BCM3/NOPB</t>
+  </si>
+  <si>
+    <t>LM431BCM3/NOPBCT-ND </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2930,6 +2927,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2976,7 +2980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3001,6 +3005,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -3319,8 +3329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141DE95B-5139-4F8A-9CCE-A913B8066809}">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71:K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3342,7 +3352,7 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3368,7 +3378,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3376,7 +3386,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -3394,13 +3404,13 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>4</v>
@@ -3420,10 +3430,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>40</v>
@@ -3448,15 +3458,15 @@
         <v>15</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>44</v>
@@ -3481,15 +3491,15 @@
         <v>15</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>87</v>
@@ -3514,12 +3524,12 @@
         <v>15</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>62</v>
@@ -3552,7 +3562,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>67</v>
@@ -3585,7 +3595,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>78</v>
@@ -3613,12 +3623,12 @@
         <v>15</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>89</v>
@@ -3646,12 +3656,12 @@
         <v>15</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>92</v>
@@ -3679,12 +3689,12 @@
         <v>15</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>96</v>
@@ -3712,12 +3722,12 @@
         <v>15</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>102</v>
@@ -3750,7 +3760,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>107</v>
@@ -3778,12 +3788,12 @@
         <v>15</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>111</v>
@@ -3811,18 +3821,18 @@
         <v>15</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>115</v>
@@ -3835,7 +3845,7 @@
         <v>117</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>116</v>
@@ -3849,10 +3859,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>125</v>
@@ -3875,18 +3885,18 @@
         <v>15</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
@@ -3906,12 +3916,12 @@
         <v>15</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>134</v>
@@ -3937,12 +3947,12 @@
         <v>15</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>139</v>
@@ -3961,7 +3971,7 @@
         <v>127</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>142</v>
@@ -3975,7 +3985,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>260</v>
@@ -4006,7 +4016,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>265</v>
@@ -4037,7 +4047,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>271</v>
@@ -4068,7 +4078,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>284</v>
@@ -4094,12 +4104,12 @@
         <v>15</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>289</v>
@@ -4130,7 +4140,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>294</v>
@@ -4161,7 +4171,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>299</v>
@@ -4189,25 +4199,25 @@
         <v>15</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>321</v>
@@ -4216,18 +4226,18 @@
         <v>304</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>306</v>
@@ -4260,17 +4270,17 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="6" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
@@ -4280,18 +4290,18 @@
         <v>304</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="J31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>314</v>
@@ -4324,20 +4334,20 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="6" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>321</v>
@@ -4346,24 +4356,24 @@
         <v>322</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>318</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="6" t="s">
@@ -4390,13 +4400,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>325</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="6" t="s">
@@ -4423,13 +4433,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="6" t="s">
@@ -4451,18 +4461,18 @@
         <v>15</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>331</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="6" t="s">
@@ -4489,7 +4499,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>336</v>
@@ -4517,12 +4527,12 @@
         <v>15</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>341</v>
@@ -4550,15 +4560,15 @@
         <v>15</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>346</v>
@@ -4583,12 +4593,12 @@
         <v>15</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>350</v>
@@ -4621,7 +4631,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>356</v>
@@ -4649,15 +4659,15 @@
         <v>15</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>361</v>
@@ -4682,12 +4692,12 @@
         <v>15</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>363</v>
@@ -4715,12 +4725,12 @@
         <v>15</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>368</v>
@@ -4748,12 +4758,12 @@
         <v>15</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>373</v>
@@ -4786,7 +4796,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>380</v>
@@ -4819,7 +4829,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>386</v>
@@ -4847,12 +4857,12 @@
         <v>15</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>391</v>
@@ -4885,7 +4895,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>395</v>
@@ -4913,12 +4923,12 @@
         <v>15</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>400</v>
@@ -4946,12 +4956,12 @@
         <v>15</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>405</v>
@@ -4979,12 +4989,12 @@
         <v>15</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>410</v>
@@ -5017,7 +5027,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>416</v>
@@ -5045,12 +5055,12 @@
         <v>15</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>421</v>
@@ -5083,7 +5093,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>427</v>
@@ -5116,7 +5126,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>433</v>
@@ -5144,18 +5154,18 @@
         <v>15</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>436</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="6" t="s">
@@ -5182,7 +5192,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>441</v>
@@ -5215,7 +5225,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>445</v>
@@ -5243,12 +5253,12 @@
         <v>15</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>450</v>
@@ -5276,12 +5286,12 @@
         <v>15</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>453</v>
@@ -5314,7 +5324,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>458</v>
@@ -5347,13 +5357,13 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>464</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="6" t="s">
@@ -5380,7 +5390,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>469</v>
@@ -5408,12 +5418,12 @@
         <v>15</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>496</v>
@@ -5444,7 +5454,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>503</v>
@@ -5475,7 +5485,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>508</v>
@@ -5506,7 +5516,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>513</v>
@@ -5532,12 +5542,12 @@
         <v>15</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>517</v>
@@ -5563,12 +5573,12 @@
         <v>15</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>521</v>
@@ -5585,171 +5595,171 @@
         <v>127</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>525</v>
+        <v>500</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>654</v>
       </c>
       <c r="J71" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K71" s="6" t="s">
-        <v>526</v>
+      <c r="K71" s="11" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="6" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>500</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="J72" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>282</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="J73" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>500</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="J74" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="J75" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>500</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J76" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -5773,7 +5783,7 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -6052,7 +6062,7 @@
         <v>99</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>51</v>
@@ -6074,7 +6084,7 @@
         <v>15</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -6124,7 +6134,7 @@
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H89" s="6" t="s">
         <v>148</v>
@@ -6299,7 +6309,7 @@
         <v>4</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>180</v>
@@ -6330,7 +6340,7 @@
         <v>5</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>184</v>
@@ -6392,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>193</v>
@@ -6801,7 +6811,7 @@
         <v>15</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -6894,7 +6904,7 @@
         <v>15</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="105" x14ac:dyDescent="0.25">

--- a/Main Board/BOM-MB-Rev2b.xlsx
+++ b/Main Board/BOM-MB-Rev2b.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Circuits\Altium\CurveTracer\MainBoard\Rev2\Project Outputs for MainBoardRev2b\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Main Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A1FF90-9FE6-4D60-924D-E8AD64926A62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C6F0564-6299-44DA-824A-119907CB7C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="8850" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
+    <workbookView xWindow="6135" yWindow="3150" windowWidth="21600" windowHeight="14055" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
   </bookViews>
   <sheets>
-    <sheet name="MainBoardRev2" sheetId="1" r:id="rId1"/>
+    <sheet name="MainBoardRev2b" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">MainBoardRev2!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">MainBoardRev2b!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="645">
   <si>
     <t>Quantity</t>
   </si>
@@ -2776,18 +2776,9 @@
     <t>N-Channel Power MOSFET</t>
   </si>
   <si>
-    <t>STW28N60</t>
-  </si>
-  <si>
     <t>TO-247</t>
   </si>
   <si>
-    <t>STW28N60M2</t>
-  </si>
-  <si>
-    <t>497-14292-1-ND</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
@@ -2867,13 +2858,19 @@
   </si>
   <si>
     <t>MJE15035GOS-ND</t>
+  </si>
+  <si>
+    <t>STW9N80K5</t>
+  </si>
+  <si>
+    <t>497-19234-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2904,6 +2901,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2950,7 +2954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2984,6 +2988,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -3302,26 +3309,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141DE95B-5139-4F8A-9CCE-A913B8066809}">
   <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:XFD106"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.578125" customWidth="1"/>
-    <col min="2" max="2" width="16.68359375" customWidth="1"/>
-    <col min="3" max="3" width="37.1015625" customWidth="1"/>
-    <col min="4" max="4" width="7.7890625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.89453125" customWidth="1"/>
-    <col min="6" max="6" width="7.89453125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="26.41796875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.3671875" customWidth="1"/>
-    <col min="9" max="9" width="24.5234375" customWidth="1"/>
-    <col min="10" max="10" width="9.9453125" customWidth="1"/>
-    <col min="11" max="11" width="30.47265625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
@@ -3336,7 +3343,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3349,7 +3356,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>344</v>
       </c>
@@ -3366,7 +3373,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3401,7 +3408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>412</v>
       </c>
@@ -3434,7 +3441,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>392</v>
       </c>
@@ -3467,7 +3474,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>394</v>
       </c>
@@ -3500,7 +3507,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>341</v>
       </c>
@@ -3533,7 +3540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>341</v>
       </c>
@@ -3566,7 +3573,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>334</v>
       </c>
@@ -3599,7 +3606,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>334</v>
       </c>
@@ -3632,7 +3639,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>337</v>
       </c>
@@ -3665,7 +3672,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>334</v>
       </c>
@@ -3698,7 +3705,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>334</v>
       </c>
@@ -3731,7 +3738,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>334</v>
       </c>
@@ -3764,7 +3771,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>334</v>
       </c>
@@ -3797,7 +3804,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>388</v>
       </c>
@@ -3830,7 +3837,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>390</v>
       </c>
@@ -3861,7 +3868,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>342</v>
       </c>
@@ -3892,7 +3899,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>337</v>
       </c>
@@ -3923,7 +3930,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>336</v>
       </c>
@@ -3956,7 +3963,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>337</v>
       </c>
@@ -3987,7 +3994,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>336</v>
       </c>
@@ -4018,7 +4025,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>339</v>
       </c>
@@ -4049,7 +4056,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>336</v>
       </c>
@@ -4080,7 +4087,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>334</v>
       </c>
@@ -4111,7 +4118,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>340</v>
       </c>
@@ -4144,7 +4151,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>397</v>
       </c>
@@ -4177,7 +4184,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>343</v>
       </c>
@@ -4210,7 +4217,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>336</v>
       </c>
@@ -4241,7 +4248,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>333</v>
       </c>
@@ -4274,7 +4281,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>334</v>
       </c>
@@ -4307,7 +4314,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>334</v>
       </c>
@@ -4340,7 +4347,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>336</v>
       </c>
@@ -4373,7 +4380,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>410</v>
       </c>
@@ -4406,7 +4413,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>334</v>
       </c>
@@ -4439,7 +4446,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>337</v>
       </c>
@@ -4472,7 +4479,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>334</v>
       </c>
@@ -4505,7 +4512,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>395</v>
       </c>
@@ -4538,7 +4545,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>334</v>
       </c>
@@ -4571,7 +4578,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>335</v>
       </c>
@@ -4604,7 +4611,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>338</v>
       </c>
@@ -4637,7 +4644,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>334</v>
       </c>
@@ -4670,7 +4677,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>334</v>
       </c>
@@ -4703,7 +4710,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>334</v>
       </c>
@@ -4736,7 +4743,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>334</v>
       </c>
@@ -4769,7 +4776,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>334</v>
       </c>
@@ -4802,7 +4809,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>334</v>
       </c>
@@ -4835,7 +4842,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>336</v>
       </c>
@@ -4868,7 +4875,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>334</v>
       </c>
@@ -4901,7 +4908,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>334</v>
       </c>
@@ -4934,7 +4941,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>337</v>
       </c>
@@ -4967,7 +4974,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>334</v>
       </c>
@@ -5000,7 +5007,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>334</v>
       </c>
@@ -5033,7 +5040,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>334</v>
       </c>
@@ -5066,7 +5073,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>336</v>
       </c>
@@ -5099,7 +5106,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>334</v>
       </c>
@@ -5132,7 +5139,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>339</v>
       </c>
@@ -5165,7 +5172,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>337</v>
       </c>
@@ -5198,7 +5205,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>334</v>
       </c>
@@ -5231,7 +5238,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>340</v>
       </c>
@@ -5264,7 +5271,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>336</v>
       </c>
@@ -5297,7 +5304,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>336</v>
       </c>
@@ -5330,7 +5337,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>334</v>
       </c>
@@ -5361,7 +5368,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>334</v>
       </c>
@@ -5392,7 +5399,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>334</v>
       </c>
@@ -5423,7 +5430,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>334</v>
       </c>
@@ -5454,7 +5461,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>334</v>
       </c>
@@ -5485,7 +5492,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>334</v>
       </c>
@@ -5516,7 +5523,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>334</v>
       </c>
@@ -5547,7 +5554,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>334</v>
       </c>
@@ -5578,7 +5585,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>337</v>
       </c>
@@ -5609,7 +5616,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>334</v>
       </c>
@@ -5640,7 +5647,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5653,7 +5660,7 @@
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5668,7 +5675,7 @@
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>3</v>
       </c>
@@ -5701,7 +5708,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>1</v>
       </c>
@@ -5734,7 +5741,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>2</v>
       </c>
@@ -5767,7 +5774,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>1</v>
       </c>
@@ -5800,7 +5807,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>6</v>
       </c>
@@ -5833,7 +5840,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>4</v>
       </c>
@@ -5866,7 +5873,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>2</v>
       </c>
@@ -5899,7 +5906,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>1</v>
       </c>
@@ -5932,7 +5939,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>7</v>
       </c>
@@ -5965,7 +5972,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>1</v>
       </c>
@@ -5996,7 +6003,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>1</v>
       </c>
@@ -6027,7 +6034,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>1</v>
       </c>
@@ -6058,7 +6065,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>2</v>
       </c>
@@ -6089,7 +6096,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>2</v>
       </c>
@@ -6120,7 +6127,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>2</v>
       </c>
@@ -6151,7 +6158,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>1</v>
       </c>
@@ -6182,7 +6189,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>4</v>
       </c>
@@ -6213,7 +6220,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>5</v>
       </c>
@@ -6244,7 +6251,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>1</v>
       </c>
@@ -6275,7 +6282,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>1</v>
       </c>
@@ -6306,7 +6313,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>2</v>
       </c>
@@ -6337,7 +6344,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>1</v>
       </c>
@@ -6368,7 +6375,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>1</v>
       </c>
@@ -6399,7 +6406,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>1</v>
       </c>
@@ -6432,7 +6439,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>1</v>
       </c>
@@ -6465,7 +6472,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>1</v>
       </c>
@@ -6498,7 +6505,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>1</v>
       </c>
@@ -6531,7 +6538,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>2</v>
       </c>
@@ -6564,7 +6571,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>1</v>
       </c>
@@ -6597,7 +6604,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>1</v>
       </c>
@@ -6630,7 +6637,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>2</v>
       </c>
@@ -6638,11 +6645,11 @@
         <v>611</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="6" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="6" t="s">
@@ -6652,16 +6659,16 @@
         <v>73</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="J106" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>2</v>
       </c>
@@ -6672,151 +6679,151 @@
         <v>614</v>
       </c>
       <c r="D107" s="5"/>
-      <c r="E107" s="6" t="s">
-        <v>615</v>
+      <c r="E107" s="13" t="s">
+        <v>643</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="I107" s="6" t="s">
-        <v>617</v>
+      <c r="I107" s="13" t="s">
+        <v>643</v>
       </c>
       <c r="J107" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>1</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F108" s="5"/>
       <c r="G108" s="6" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J108" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>1</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="6" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="6" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I109" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K109" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="J109" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K109" s="6" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>1</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="6" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="6" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="I110" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K110" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="J110" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K110" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="111" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>26</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="6" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="F111" s="5"/>
       <c r="G111" s="6" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -6829,7 +6836,7 @@
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>

--- a/Main Board/BOM-MB-Rev2b.xlsx
+++ b/Main Board/BOM-MB-Rev2b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Main Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C6F0564-6299-44DA-824A-119907CB7C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{1C6F0564-6299-44DA-824A-119907CB7C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A72947F-ED96-44B1-B3C3-0256E70D3F51}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="3150" windowWidth="21600" windowHeight="14055" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
+    <workbookView xWindow="5790" yWindow="2805" windowWidth="21600" windowHeight="14055" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
   </bookViews>
   <sheets>
     <sheet name="MainBoardRev2b" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="651">
   <si>
     <t>Quantity</t>
   </si>
@@ -2864,13 +2864,31 @@
   </si>
   <si>
     <t>497-19234-ND</t>
+  </si>
+  <si>
+    <t>1500uF</t>
+  </si>
+  <si>
+    <t>C6 alternative</t>
+  </si>
+  <si>
+    <t>CAP ALUM 1500UF 20% 250V SNAP</t>
+  </si>
+  <si>
+    <t>CAPR10-35X41</t>
+  </si>
+  <si>
+    <t>380LQ152M250A052</t>
+  </si>
+  <si>
+    <t>338-2245-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2908,6 +2926,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3307,10 +3331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141DE95B-5139-4F8A-9CCE-A913B8066809}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I107" sqref="I107"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5808,199 +5832,197 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
-        <v>6</v>
-      </c>
+      <c r="A80" s="5"/>
       <c r="B80" s="6" t="s">
-        <v>464</v>
+        <v>646</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>466</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="D80" s="6"/>
       <c r="E80" s="6" t="s">
-        <v>466</v>
+        <v>645</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="6" t="s">
-        <v>467</v>
+        <v>648</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>469</v>
+        <v>649</v>
       </c>
       <c r="J80" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>470</v>
+        <v>650</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="6" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>468</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="J81" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="6" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>16</v>
+        <v>468</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="J82" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="6" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>468</v>
+        <v>16</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="J83" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <v>7</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>488</v>
+        <v>1</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>482</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>468</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="J84" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K84" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K84" s="6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <v>1</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>493</v>
+        <v>7</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>488</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="D85" s="5"/>
+        <v>489</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>466</v>
+      </c>
       <c r="E85" s="6" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="6" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="J85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K85" s="6" t="s">
-        <v>498</v>
+      <c r="K85" s="5" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -6008,30 +6030,30 @@
         <v>1</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="6" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="6" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="J86" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -6039,61 +6061,61 @@
         <v>1</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="6" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="6" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J87" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="6" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F88" s="5"/>
       <c r="G88" s="6" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="J88" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -6101,30 +6123,30 @@
         <v>2</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="6" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="6" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="J89" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -6132,154 +6154,154 @@
         <v>2</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="6" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="6" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="J90" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="6" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="6" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="J91" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="6" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="6" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>534</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="J92" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="6" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>534</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="J93" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D94" s="5"/>
       <c r="E94" s="6" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="6" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="J94" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -6287,92 +6309,92 @@
         <v>1</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="6" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="6" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="J95" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="6" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="6" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="J96" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="6" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="6" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>534</v>
+        <v>561</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="J97" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -6380,30 +6402,30 @@
         <v>1</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="6" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="6" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="J98" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -6411,32 +6433,30 @@
         <v>1</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>86</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="F99" s="5"/>
       <c r="G99" s="6" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="J99" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -6444,17 +6464,17 @@
         <v>1</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>577</v>
@@ -6463,13 +6483,13 @@
         <v>578</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="J100" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -6477,17 +6497,17 @@
         <v>1</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="6" t="s">
-        <v>587</v>
+        <v>87</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>588</v>
+        <v>88</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>577</v>
@@ -6496,13 +6516,13 @@
         <v>578</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="J101" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -6510,17 +6530,17 @@
         <v>1</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="6" t="s">
-        <v>89</v>
+        <v>587</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>90</v>
+        <v>588</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>577</v>
@@ -6529,64 +6549,64 @@
         <v>578</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="J102" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="6" t="s">
-        <v>597</v>
+        <v>89</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>597</v>
+        <v>90</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="J103" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="6" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G104" s="6" t="s">
         <v>598</v>
@@ -6595,13 +6615,13 @@
         <v>599</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="J104" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -6609,63 +6629,65 @@
         <v>1</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="6" t="s">
-        <v>91</v>
+        <v>604</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>92</v>
+        <v>604</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="J105" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>639</v>
+        <v>608</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="F106" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="G106" s="6" t="s">
-        <v>612</v>
+        <v>577</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>73</v>
+        <v>578</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>641</v>
+        <v>609</v>
       </c>
       <c r="J106" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>642</v>
+        <v>610</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -6673,61 +6695,61 @@
         <v>2</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="D107" s="5"/>
-      <c r="E107" s="13" t="s">
-        <v>643</v>
+      <c r="E107" s="6" t="s">
+        <v>640</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I107" s="13" t="s">
-        <v>643</v>
+        <v>73</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>641</v>
       </c>
       <c r="J107" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D108" s="5"/>
-      <c r="E108" s="6" t="s">
-        <v>618</v>
+      <c r="E108" s="13" t="s">
+        <v>643</v>
       </c>
       <c r="F108" s="5"/>
       <c r="G108" s="6" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="I108" s="6" t="s">
-        <v>619</v>
+        <v>105</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>643</v>
       </c>
       <c r="J108" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>621</v>
+        <v>644</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -6735,30 +6757,30 @@
         <v>1</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="6" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F109" s="5"/>
       <c r="G109" s="6" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="J109" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -6766,75 +6788,93 @@
         <v>1</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="6" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F110" s="5"/>
       <c r="G110" s="6" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="J110" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <v>26</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>634</v>
+        <v>1</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>628</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="6" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F111" s="5"/>
       <c r="G111" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
+        <v>26</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="D112" s="5"/>
+      <c r="E112" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="F112" s="5"/>
+      <c r="G112" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="H111" s="6" t="s">
+      <c r="H112" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="I111" s="6" t="s">
+      <c r="I112" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="J111" s="6" t="s">
+      <c r="J112" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="K111" s="6" t="s">
+      <c r="K112" s="6" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
@@ -6849,7 +6889,21 @@
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
     </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup scale="115" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Main Board/BOM-MB-Rev2b.xlsx
+++ b/Main Board/BOM-MB-Rev2b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Main Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{1C6F0564-6299-44DA-824A-119907CB7C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A72947F-ED96-44B1-B3C3-0256E70D3F51}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{1C6F0564-6299-44DA-824A-119907CB7C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1B1CF59-500D-4378-B372-119A12709A38}"/>
   <bookViews>
     <workbookView xWindow="5790" yWindow="2805" windowWidth="21600" windowHeight="14055" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="654">
   <si>
     <t>Quantity</t>
   </si>
@@ -2882,6 +2882,15 @@
   </si>
   <si>
     <t>338-2245-ND</t>
+  </si>
+  <si>
+    <t>Changelog:</t>
+  </si>
+  <si>
+    <t>Juli 26</t>
+  </si>
+  <si>
+    <t>The partnumber for the alternative for C6 has been added. C6 is very hard to get at the moment.</t>
   </si>
 </sst>
 </file>
@@ -3331,10 +3340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141DE95B-5139-4F8A-9CCE-A913B8066809}">
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6902,6 +6911,19 @@
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
     </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>652</v>
+      </c>
+      <c r="C117" t="s">
+        <v>653</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/Main Board/BOM-MB-Rev2b.xlsx
+++ b/Main Board/BOM-MB-Rev2b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Main Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{1C6F0564-6299-44DA-824A-119907CB7C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1B1CF59-500D-4378-B372-119A12709A38}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{1C6F0564-6299-44DA-824A-119907CB7C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFF9B254-9C9B-4F25-93D7-3156BD150A76}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="2805" windowWidth="21600" windowHeight="14055" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
+    <workbookView xWindow="4335" yWindow="540" windowWidth="21600" windowHeight="14055" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
   </bookViews>
   <sheets>
     <sheet name="MainBoardRev2b" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="664">
   <si>
     <t>Quantity</t>
   </si>
@@ -1005,9 +1013,6 @@
     <t>Vishay Lite-On</t>
   </si>
   <si>
-    <t>Main Board Rev 2</t>
-  </si>
-  <si>
     <t>Surface Mount</t>
   </si>
   <si>
@@ -1388,9 +1393,6 @@
     <t>RES 2.21 Ohm 1% 1W 2512</t>
   </si>
   <si>
-    <t>160-1309-1-ND</t>
-  </si>
-  <si>
     <t>497-14376-1-ND</t>
   </si>
   <si>
@@ -1415,9 +1417,6 @@
     <t>2019-RK73H2ATTD49R9FCT-ND</t>
   </si>
   <si>
-    <t>2019-RK73H2ATTD1004CTR-ND</t>
-  </si>
-  <si>
     <t>2019-RK73H2ATTD2000FCT-ND</t>
   </si>
   <si>
@@ -2179,12 +2178,6 @@
     <t>33.2K</t>
   </si>
   <si>
-    <t>RMCF1206FT3322FCT-ND</t>
-  </si>
-  <si>
-    <t>RMCF1206FT3322F</t>
-  </si>
-  <si>
     <t>LM431BCM3/NOPB</t>
   </si>
   <si>
@@ -2830,9 +2823,6 @@
     <t>Triad Magnetics</t>
   </si>
   <si>
-    <t>237-1501-1-ND</t>
-  </si>
-  <si>
     <t>TP10, TP11, TP12, TP13, TP30, TP31, TP32, TP40, TP41, TP50, TP51, TP52, TP54, TP55, TP100, TP101, TP102, TP103, TP104, TP105, TP106, TP107, TP108, TP109, TP112, TP113</t>
   </si>
   <si>
@@ -2891,6 +2881,54 @@
   </si>
   <si>
     <t>The partnumber for the alternative for C6 has been added. C6 is very hard to get at the moment.</t>
+  </si>
+  <si>
+    <t>Main Board Rev 2b</t>
+  </si>
+  <si>
+    <t>Qty/Side</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>RMCF1206FT33K2</t>
+  </si>
+  <si>
+    <t>RMCF1206FT33K2CT-ND</t>
+  </si>
+  <si>
+    <t>Juli 28</t>
+  </si>
+  <si>
+    <t>Added a single quantity column to aid importing at Digikey</t>
+  </si>
+  <si>
+    <t>Corrected p/n for R3, R7</t>
+  </si>
+  <si>
+    <t>Corrected digikey p/n for R108</t>
+  </si>
+  <si>
+    <t>160-1309-5-ND</t>
+  </si>
+  <si>
+    <t>Corrected digikey p/n for U53</t>
+  </si>
+  <si>
+    <t>237-1501-5-ND</t>
+  </si>
+  <si>
+    <t>Corrected digikey p/n for T10</t>
+  </si>
+  <si>
+    <t>2019-RK73H2ATTD1004FCT-ND</t>
   </si>
 </sst>
 </file>
@@ -2987,7 +3025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3025,6 +3063,40 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3340,34 +3412,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141DE95B-5139-4F8A-9CCE-A913B8066809}">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="B112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H129" sqref="H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D1" s="2"/>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>648</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3375,10 +3448,10 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="18"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -3388,2301 +3461,2511 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B3" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>343</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="H3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
+      <c r="B4" s="19" t="s">
+        <v>649</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="K5" s="6" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>32</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="K6" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>21</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="K7" s="6" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>2</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="K9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>1</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="K10" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>1</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="K11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>3</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="K12" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="K13" s="6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>1</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="K14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6" t="s">
+      <c r="F15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="K15" s="6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>1</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="K16" s="6" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>14</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>2</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>5</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>3</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>2</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>3</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>2</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>5</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>2</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>1</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>1</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>2</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>6</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>2</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>4</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6" t="s">
+      <c r="C31" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>1</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
+        <v>1</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="15">
+        <v>2</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>4</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>1</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>3</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>1</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>6</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>1</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <v>1</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
+        <v>9</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>1</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>1</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
+        <v>1</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
+        <v>1</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>1</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <v>1</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
+        <v>2</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="15">
+        <v>1</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
+        <v>1</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E51" s="5"/>
+      <c r="F51" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <v>3</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
+        <v>1</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
+        <v>1</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>1</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <v>2</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <v>1</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
+        <v>5</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>3</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="15">
+        <v>1</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <v>1</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="15">
+        <v>2</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="15">
+        <v>2</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="15">
+        <v>1</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E64" s="5"/>
+      <c r="F64" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="15">
+        <v>1</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="F65" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="15">
+        <v>1</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E66" s="5"/>
+      <c r="F66" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="15">
+        <v>1</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E67" s="5"/>
+      <c r="F67" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G67" s="5"/>
+      <c r="H67" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="15">
+        <v>1</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="15">
+        <v>1</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="I69" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="15">
+        <v>1</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E70" s="5"/>
+      <c r="F70" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="15">
+        <v>1</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="K71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="15">
+        <v>3</v>
+      </c>
+      <c r="B72" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="D72" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="G72" s="5"/>
+      <c r="H72" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="15">
+        <v>1</v>
+      </c>
+      <c r="B73" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="F66" s="5"/>
-      <c r="G66" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="F67" s="5"/>
-      <c r="G67" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K69" s="11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="F70" s="5"/>
-      <c r="G70" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="F71" s="5"/>
-      <c r="G71" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K71" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="F72" s="5"/>
-      <c r="G72" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K72" s="11" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B73" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="D73" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D73" s="5"/>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="5"/>
+      <c r="F73" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F73" s="5"/>
-      <c r="G73" s="6" t="s">
+      <c r="G73" s="5"/>
+      <c r="H73" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="H73" s="6" t="s">
+      <c r="I73" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="I73" s="6" t="s">
+      <c r="J73" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="J73" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="K73" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="18"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5692,1202 +5975,1315 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="18"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="H75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="25">
         <v>3</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>438</v>
+      <c r="B76" s="20">
+        <v>3</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>9</v>
+        <v>434</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="6" t="s">
+      <c r="F76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="25">
+        <v>1</v>
+      </c>
+      <c r="B77" s="20">
+        <v>1</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="E77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="5"/>
+      <c r="H77" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="I76" s="6" t="s">
+      <c r="I77" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="J76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K76" s="6" t="s">
+      <c r="K77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L77" s="6" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
-        <v>1</v>
-      </c>
-      <c r="B77" s="6" t="s">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="25">
+        <v>2</v>
+      </c>
+      <c r="B78" s="20">
+        <v>2</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="D78" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="5"/>
-      <c r="G77" s="6" t="s">
+      <c r="E78" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="H77" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="6" t="s">
+      <c r="F78" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="J77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K77" s="6" t="s">
+      <c r="G78" s="5"/>
+      <c r="H78" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="I78" s="6" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
+      <c r="J78" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="25" t="s">
+        <v>651</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="25">
+        <v>6</v>
+      </c>
+      <c r="B81" s="20">
+        <v>6</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="25">
+        <v>4</v>
+      </c>
+      <c r="B82" s="20">
+        <v>4</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="G82" s="5"/>
+      <c r="H82" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="25">
         <v>2</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="F78" s="5"/>
-      <c r="G78" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
-        <v>1</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="F79" s="5"/>
-      <c r="G79" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="H79" s="6" t="s">
+      <c r="B83" s="20">
+        <v>2</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="I79" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K79" s="6" t="s">
+      <c r="F83" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="G83" s="5"/>
+      <c r="H83" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="25">
+        <v>1</v>
+      </c>
+      <c r="B84" s="20">
+        <v>1</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="G84" s="5"/>
+      <c r="H84" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="I84" s="6" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="F80" s="5"/>
-      <c r="G80" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="H80" s="6" t="s">
+      <c r="J84" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="25">
+        <v>7</v>
+      </c>
+      <c r="B85" s="20">
+        <v>7</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="I80" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="J80" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
-        <v>6</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="F81" s="5"/>
-      <c r="G81" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+      <c r="F85" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="G85" s="5"/>
+      <c r="H85" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="25">
+        <v>1</v>
+      </c>
+      <c r="B86" s="20">
+        <v>1</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E86" s="5"/>
+      <c r="F86" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="G86" s="5"/>
+      <c r="H86" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="25">
+        <v>1</v>
+      </c>
+      <c r="B87" s="20">
+        <v>1</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="E87" s="5"/>
+      <c r="F87" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="G87" s="5"/>
+      <c r="H87" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="25">
+        <v>1</v>
+      </c>
+      <c r="B88" s="20">
+        <v>1</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="G88" s="5"/>
+      <c r="H88" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="25">
+        <v>2</v>
+      </c>
+      <c r="B89" s="20">
+        <v>2</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="E89" s="5"/>
+      <c r="F89" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="G89" s="5"/>
+      <c r="H89" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="25">
+        <v>2</v>
+      </c>
+      <c r="B90" s="20">
+        <v>2</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="G90" s="5"/>
+      <c r="H90" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="25">
+        <v>2</v>
+      </c>
+      <c r="B91" s="20">
+        <v>2</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="G91" s="5"/>
+      <c r="H91" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="25">
+        <v>1</v>
+      </c>
+      <c r="B92" s="20">
+        <v>1</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="G92" s="5"/>
+      <c r="H92" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="25">
         <v>4</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="F82" s="5"/>
-      <c r="G82" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
-        <v>2</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="F83" s="5"/>
-      <c r="G83" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="J83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
-        <v>1</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="F84" s="5"/>
-      <c r="G84" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="J84" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K84" s="6" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
-        <v>7</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="F85" s="5"/>
-      <c r="G85" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="J85" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
-        <v>1</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="F86" s="5"/>
-      <c r="G86" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="J86" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
-        <v>1</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="F87" s="5"/>
-      <c r="G87" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
-        <v>1</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="D88" s="5"/>
-      <c r="E88" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="F88" s="5"/>
-      <c r="G88" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
-        <v>2</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="F89" s="5"/>
-      <c r="G89" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="J89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
-        <v>2</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="F90" s="5"/>
-      <c r="G90" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="J90" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K90" s="6" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
-        <v>2</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="F91" s="5"/>
-      <c r="G91" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="J91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
-        <v>1</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="C92" s="6" t="s">
+      <c r="B93" s="20">
+        <v>4</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="6" t="s">
+      <c r="D93" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="F92" s="5"/>
-      <c r="G92" s="6" t="s">
+      <c r="E93" s="5"/>
+      <c r="F93" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="H92" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="J92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K92" s="6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
-        <v>4</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="F93" s="5"/>
-      <c r="G93" s="6" t="s">
-        <v>539</v>
-      </c>
+      <c r="G93" s="5"/>
       <c r="H93" s="6" t="s">
         <v>534</v>
       </c>
       <c r="I93" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="25">
+        <v>5</v>
+      </c>
+      <c r="B94" s="20">
+        <v>5</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="E94" s="5"/>
+      <c r="F94" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="J93" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K93" s="6" t="s">
+      <c r="G94" s="5"/>
+      <c r="H94" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L94" s="6" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
-        <v>5</v>
-      </c>
-      <c r="B94" s="6" t="s">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="25">
+        <v>1</v>
+      </c>
+      <c r="B95" s="20">
+        <v>1</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="D95" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="6" t="s">
+      <c r="E95" s="5"/>
+      <c r="F95" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="F94" s="5"/>
-      <c r="G94" s="6" t="s">
+      <c r="G95" s="5"/>
+      <c r="H95" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="H94" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="I94" s="6" t="s">
+      <c r="I95" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="J95" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="J94" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K94" s="6" t="s">
+      <c r="K95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="6" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
-        <v>1</v>
-      </c>
-      <c r="B95" s="6" t="s">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="25">
+        <v>1</v>
+      </c>
+      <c r="B96" s="20">
+        <v>1</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="6" t="s">
+      <c r="E96" s="5"/>
+      <c r="F96" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="F95" s="5"/>
-      <c r="G95" s="6" t="s">
+      <c r="G96" s="5"/>
+      <c r="H96" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="H95" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="I95" s="6" t="s">
+      <c r="I96" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="J96" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="J95" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
-        <v>1</v>
-      </c>
-      <c r="B96" s="6" t="s">
+      <c r="K96" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L96" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="C96" s="6" t="s">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="25">
+        <v>2</v>
+      </c>
+      <c r="B97" s="20">
+        <v>2</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="D96" s="5"/>
-      <c r="E96" s="6" t="s">
+      <c r="D97" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="F96" s="5"/>
-      <c r="G96" s="6" t="s">
+      <c r="E97" s="5"/>
+      <c r="F97" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="H96" s="6" t="s">
+      <c r="G97" s="5"/>
+      <c r="H97" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="I96" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="J96" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K96" s="6" t="s">
+      <c r="I97" s="6" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
+      <c r="J97" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="25">
+        <v>1</v>
+      </c>
+      <c r="B98" s="20">
+        <v>1</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="G98" s="5"/>
+      <c r="H98" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="25">
+        <v>1</v>
+      </c>
+      <c r="B99" s="20">
+        <v>1</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E99" s="5"/>
+      <c r="F99" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="G99" s="5"/>
+      <c r="H99" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="25">
+        <v>1</v>
+      </c>
+      <c r="B100" s="20">
+        <v>1</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="25">
+        <v>1</v>
+      </c>
+      <c r="B101" s="20">
+        <v>1</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H101" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="I101" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="25">
+        <v>1</v>
+      </c>
+      <c r="B102" s="20">
+        <v>1</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="25">
+        <v>1</v>
+      </c>
+      <c r="B103" s="20">
+        <v>1</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="I103" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="25">
         <v>2</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="F97" s="5"/>
-      <c r="G97" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="J97" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
-        <v>1</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="D98" s="5"/>
-      <c r="E98" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="F98" s="5"/>
-      <c r="G98" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="J98" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K98" s="6" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
-        <v>1</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="F99" s="5"/>
-      <c r="G99" s="6" t="s">
+      <c r="B104" s="20">
+        <v>2</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="K104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="25">
+        <v>1</v>
+      </c>
+      <c r="B105" s="20">
+        <v>1</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="25">
+        <v>1</v>
+      </c>
+      <c r="B106" s="20">
+        <v>1</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H106" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="H99" s="6" t="s">
+      <c r="I106" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="I99" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="J99" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
-        <v>1</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
-        <v>1</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="J101" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
-        <v>1</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="J102" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K102" s="6" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
-        <v>1</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="J103" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K103" s="6" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
+      <c r="J106" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="25">
         <v>2</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="J104" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K104" s="6" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
-        <v>1</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="D105" s="5"/>
-      <c r="E105" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="J105" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K105" s="6" t="s">
+      <c r="B107" s="20">
+        <v>2</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
-        <v>1</v>
-      </c>
-      <c r="B106" s="6" t="s">
+      <c r="D107" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="I107" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="25">
+        <v>2</v>
+      </c>
+      <c r="B108" s="20">
+        <v>2</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="H106" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="I106" s="6" t="s">
+      <c r="D108" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="J106" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K106" s="6" t="s">
+      <c r="E108" s="5"/>
+      <c r="F108" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="6" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
-        <v>2</v>
-      </c>
-      <c r="B107" s="6" t="s">
+      <c r="I108" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J108" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L108" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="25">
+        <v>1</v>
+      </c>
+      <c r="B109" s="20">
+        <v>1</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="D107" s="5"/>
-      <c r="E107" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="F107" s="5"/>
-      <c r="G107" s="6" t="s">
+      <c r="D109" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="H107" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I107" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="J107" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K107" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="5">
-        <v>2</v>
-      </c>
-      <c r="B108" s="6" t="s">
+      <c r="E109" s="5"/>
+      <c r="F109" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="G109" s="5"/>
+      <c r="H109" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="D108" s="5"/>
-      <c r="E108" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="F108" s="5"/>
-      <c r="G108" s="6" t="s">
+      <c r="I109" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="H108" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I108" s="13" t="s">
-        <v>643</v>
-      </c>
-      <c r="J108" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K108" s="6" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
-        <v>1</v>
-      </c>
-      <c r="B109" s="6" t="s">
+      <c r="J109" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="K109" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L109" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="C109" s="6" t="s">
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="25">
+        <v>1</v>
+      </c>
+      <c r="B110" s="20">
+        <v>1</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="6" t="s">
+      <c r="D110" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="F109" s="5"/>
-      <c r="G109" s="6" t="s">
+      <c r="E110" s="5"/>
+      <c r="F110" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="H109" s="6" t="s">
+      <c r="G110" s="5"/>
+      <c r="H110" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="I109" s="6" t="s">
+      <c r="I110" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="J110" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="J109" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K109" s="6" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="5">
-        <v>1</v>
-      </c>
-      <c r="B110" s="6" t="s">
+      <c r="K110" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L110" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="C110" s="6" t="s">
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="25">
+        <v>1</v>
+      </c>
+      <c r="B111" s="20">
+        <v>1</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="D110" s="5"/>
-      <c r="E110" s="6" t="s">
+      <c r="D111" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="F110" s="5"/>
-      <c r="G110" s="6" t="s">
+      <c r="E111" s="5"/>
+      <c r="F111" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="H110" s="6" t="s">
+      <c r="G111" s="5"/>
+      <c r="H111" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="I110" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="J110" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K110" s="6" t="s">
+      <c r="I111" s="6" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
-        <v>1</v>
-      </c>
-      <c r="B111" s="6" t="s">
+      <c r="J111" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A112" s="25">
+        <v>26</v>
+      </c>
+      <c r="B112" s="20">
+        <v>26</v>
+      </c>
+      <c r="C112" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="D112" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="D111" s="5"/>
-      <c r="E111" s="6" t="s">
+      <c r="E112" s="5"/>
+      <c r="F112" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="G112" s="5"/>
+      <c r="H112" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="F111" s="5"/>
-      <c r="G111" s="6" t="s">
+      <c r="I112" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="H111" s="6" t="s">
+      <c r="J112" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="I111" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="J111" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K111" s="6" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A112" s="5">
-        <v>26</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="F112" s="5"/>
-      <c r="G112" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="H112" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="J112" s="6" t="s">
-        <v>637</v>
-      </c>
       <c r="K112" s="6" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+        <v>631</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B113" s="18"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -6897,10 +7293,10 @@
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
+      <c r="L113" s="3"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="18"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -6910,18 +7306,52 @@
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>652</v>
-      </c>
-      <c r="C117" t="s">
-        <v>653</v>
+      <c r="L114" s="3"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="21" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B117" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="D117" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B118" s="21" t="s">
+        <v>655</v>
+      </c>
+      <c r="D118" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>658</v>
       </c>
     </row>
   </sheetData>

--- a/Main Board/BOM-MB-Rev2b.xlsx
+++ b/Main Board/BOM-MB-Rev2b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Main Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{1C6F0564-6299-44DA-824A-119907CB7C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFF9B254-9C9B-4F25-93D7-3156BD150A76}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{1C6F0564-6299-44DA-824A-119907CB7C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A2A6F7-DC5A-4771-BFB1-06B80FAE93E5}"/>
   <bookViews>
     <workbookView xWindow="4335" yWindow="540" windowWidth="21600" windowHeight="14055" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="672">
   <si>
     <t>Quantity</t>
   </si>
@@ -443,9 +443,6 @@
     <t>35222K7JT</t>
   </si>
   <si>
-    <t>A121210DKR-ND</t>
-  </si>
-  <si>
     <t>R4, R5, R13, R16</t>
   </si>
   <si>
@@ -797,9 +794,6 @@
     <t>35221K5JT</t>
   </si>
   <si>
-    <t>A121168DKR-ND</t>
-  </si>
-  <si>
     <t>R122, R136, R137, R140, R141</t>
   </si>
   <si>
@@ -2913,22 +2907,52 @@
     <t>Corrected p/n for R3, R7</t>
   </si>
   <si>
-    <t>Corrected digikey p/n for R108</t>
-  </si>
-  <si>
     <t>160-1309-5-ND</t>
   </si>
   <si>
-    <t>Corrected digikey p/n for U53</t>
-  </si>
-  <si>
     <t>237-1501-5-ND</t>
   </si>
   <si>
-    <t>Corrected digikey p/n for T10</t>
-  </si>
-  <si>
     <t>2019-RK73H2ATTD1004FCT-ND</t>
+  </si>
+  <si>
+    <t>A121168CT-ND</t>
+  </si>
+  <si>
+    <t>Corrected qty for Q91</t>
+  </si>
+  <si>
+    <t>Q104, Q105 alternative</t>
+  </si>
+  <si>
+    <t>STW6N90K5</t>
+  </si>
+  <si>
+    <t>TO-248</t>
+  </si>
+  <si>
+    <t>497-17077-ND</t>
+  </si>
+  <si>
+    <t>Added alternative for Q104, Q105</t>
+  </si>
+  <si>
+    <t>A121210CT-ND</t>
+  </si>
+  <si>
+    <t>Corrected Digikey p/n for R2a, R2b, R2c, R2d, R2e, R2f</t>
+  </si>
+  <si>
+    <t>Corrected Digikey p/n for R108</t>
+  </si>
+  <si>
+    <t>Corrected Digikey p/n for U53</t>
+  </si>
+  <si>
+    <t>Corrected Digikey p/n for T10</t>
+  </si>
+  <si>
+    <t>Corrected Digikey p/n for R118</t>
   </si>
 </sst>
 </file>
@@ -3025,7 +3049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3061,15 +3085,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3086,9 +3101,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3097,6 +3109,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3412,16 +3430,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141DE95B-5139-4F8A-9CCE-A913B8066809}">
-  <dimension ref="A1:L123"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129"/>
+    <sheetView tabSelected="1" topLeftCell="B115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="18" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" hidden="1" customWidth="1"/>
@@ -3435,11 +3453,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="17"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -3451,7 +3469,7 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="18"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -3464,8 +3482,8 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>343</v>
+      <c r="B3" s="15" t="s">
+        <v>341</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3473,7 +3491,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -3481,11 +3499,11 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>649</v>
+      <c r="B4" s="16" t="s">
+        <v>647</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
@@ -3494,13 +3512,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>4</v>
@@ -3519,14 +3537,14 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>409</v>
+      <c r="B5" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>14</v>
@@ -3551,18 +3569,18 @@
         <v>10</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="195" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="20">
         <v>32</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>389</v>
+      <c r="B6" s="17" t="s">
+        <v>387</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>18</v>
@@ -3587,18 +3605,18 @@
         <v>10</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="20">
         <v>21</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>391</v>
+      <c r="B7" s="17" t="s">
+        <v>389</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>37</v>
@@ -3623,15 +3641,15 @@
         <v>10</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>650</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>340</v>
+      <c r="A8" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>338</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>23</v>
@@ -3663,11 +3681,11 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>340</v>
+      <c r="B9" s="17" t="s">
+        <v>338</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>28</v>
@@ -3699,11 +3717,11 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>1</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>333</v>
+      <c r="A10" s="19">
+        <v>1</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>34</v>
@@ -3731,15 +3749,15 @@
         <v>10</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>1</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>333</v>
+      <c r="A11" s="19">
+        <v>1</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>39</v>
@@ -3767,15 +3785,15 @@
         <v>10</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="19">
         <v>3</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>336</v>
+      <c r="B12" s="17" t="s">
+        <v>334</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>42</v>
@@ -3803,15 +3821,15 @@
         <v>10</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>1</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>333</v>
+      <c r="A13" s="19">
+        <v>1</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>46</v>
@@ -3839,15 +3857,15 @@
         <v>10</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>1</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>333</v>
+      <c r="A14" s="19">
+        <v>1</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>49</v>
@@ -3879,11 +3897,11 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>333</v>
+      <c r="A15" s="19">
+        <v>1</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>54</v>
@@ -3911,15 +3929,15 @@
         <v>10</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
-        <v>1</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>333</v>
+      <c r="A16" s="19">
+        <v>1</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>58</v>
@@ -3947,21 +3965,21 @@
         <v>10</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="19">
         <v>14</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>385</v>
+      <c r="B17" s="17" t="s">
+        <v>383</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>62</v>
@@ -3974,7 +3992,7 @@
         <v>64</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>63</v>
@@ -3987,14 +4005,14 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="19">
         <v>2</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>387</v>
+      <c r="B18" s="17" t="s">
+        <v>385</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>66</v>
@@ -4017,21 +4035,21 @@
         <v>10</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="19">
         <v>5</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>341</v>
+      <c r="B19" s="17" t="s">
+        <v>339</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
@@ -4051,15 +4069,15 @@
         <v>10</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="19">
         <v>3</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>336</v>
+      <c r="B20" s="17" t="s">
+        <v>334</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>75</v>
@@ -4085,15 +4103,15 @@
         <v>10</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="19">
         <v>2</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>335</v>
+      <c r="B21" s="17" t="s">
+        <v>333</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>80</v>
@@ -4112,7 +4130,7 @@
         <v>68</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>83</v>
@@ -4125,11 +4143,11 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="19">
         <v>3</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>336</v>
+      <c r="B22" s="17" t="s">
+        <v>334</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>93</v>
@@ -4159,11 +4177,11 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="A23" s="19">
         <v>2</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>335</v>
+      <c r="B23" s="17" t="s">
+        <v>333</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>98</v>
@@ -4193,11 +4211,11 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="19">
         <v>5</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>338</v>
+      <c r="B24" s="17" t="s">
+        <v>336</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>106</v>
@@ -4223,15 +4241,15 @@
         <v>10</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+      <c r="A25" s="19">
         <v>2</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>335</v>
+      <c r="B25" s="17" t="s">
+        <v>333</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>111</v>
@@ -4261,11 +4279,11 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
-        <v>1</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>333</v>
+      <c r="A26" s="19">
+        <v>1</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>116</v>
@@ -4295,11 +4313,11 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
-        <v>1</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>339</v>
+      <c r="A27" s="19">
+        <v>1</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>337</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>121</v>
@@ -4327,51 +4345,51 @@
         <v>10</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="19">
         <v>2</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>394</v>
+      <c r="B28" s="17" t="s">
+        <v>392</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="19">
         <v>6</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>342</v>
+      <c r="B29" s="17" t="s">
+        <v>340</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>128</v>
@@ -4399,55 +4417,55 @@
         <v>10</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>135</v>
+        <v>666</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="19">
         <v>2</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>335</v>
+      <c r="B30" s="17" t="s">
+        <v>333</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="A31" s="19">
         <v>4</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>332</v>
+      <c r="B31" s="17" t="s">
+        <v>330</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
@@ -4463,135 +4481,135 @@
         <v>126</v>
       </c>
       <c r="J31" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="K31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="15">
-        <v>1</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>333</v>
+      <c r="A32" s="19">
+        <v>1</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="K32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>405</v>
-      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="15">
-        <v>1</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>333</v>
+      <c r="A33" s="19">
+        <v>1</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="I33" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="J33" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="K33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="K33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="6" t="s">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
+        <v>2</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
-        <v>2</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>147</v>
-      </c>
       <c r="D34" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J34" s="6" t="s">
+      <c r="K34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="K34" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="15">
+      <c r="A35" s="19">
         <v>4</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>407</v>
+      <c r="B35" s="17" t="s">
+        <v>405</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
@@ -4601,249 +4619,249 @@
         <v>86</v>
       </c>
       <c r="H35" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I35" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="J35" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
+        <v>1</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="K35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
-        <v>1</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>153</v>
-      </c>
       <c r="D36" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="H36" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J36" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="H36" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J36" s="6" t="s">
+      <c r="K36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="K36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="6" t="s">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="19">
+        <v>3</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="15">
-        <v>3</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="H37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H37" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J37" s="6" t="s">
+      <c r="K37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="19">
+        <v>1</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="K37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
-        <v>1</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>164</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="H38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H38" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J38" s="6" t="s">
+      <c r="K38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
+        <v>6</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>390</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="15">
-        <v>6</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="H39" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J39" s="6" t="s">
+      <c r="K39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="19">
+        <v>1</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="K39" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="15">
-        <v>1</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="H40" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H40" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J40" s="6" t="s">
+      <c r="K40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="K40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L40" s="6" t="s">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
+        <v>1</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="15">
-        <v>1</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="H41" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H41" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J41" s="6" t="s">
+      <c r="K41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>9</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="23">
-        <v>9</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6" t="s">
@@ -4853,213 +4871,213 @@
         <v>90</v>
       </c>
       <c r="H42" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="J42" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="19">
+        <v>1</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="K42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="15">
-        <v>1</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="H43" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J43" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H43" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J43" s="6" t="s">
+      <c r="K43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="19">
+        <v>1</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L43" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="15">
-        <v>1</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="H44" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J44" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H44" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J44" s="6" t="s">
+      <c r="K44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
+        <v>1</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="K44" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="15">
-        <v>1</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>195</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="H45" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J45" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="K45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L45" s="6" t="s">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="19">
+        <v>1</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="15">
-        <v>1</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>203</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="H46" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="H46" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J46" s="6" t="s">
+      <c r="K46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="K46" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L46" s="6" t="s">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="19">
+        <v>1</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="15">
-        <v>1</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>209</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="H47" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J47" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="19">
+        <v>1</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="K47" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="15">
-        <v>1</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>214</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="6" t="s">
@@ -5069,249 +5087,249 @@
         <v>86</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J48" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="K48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L48" s="6" t="s">
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="19">
+        <v>2</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="15">
-        <v>2</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="H49" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J49" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="H49" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J49" s="6" t="s">
+      <c r="K49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="19">
+        <v>1</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="K49" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="15">
-        <v>1</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="H50" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J50" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="H50" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J50" s="6" t="s">
+      <c r="K50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="19">
+        <v>1</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="K50" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="15">
-        <v>1</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>227</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="H51" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J51" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="K51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L51" s="6" t="s">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="19">
+        <v>3</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="15">
-        <v>3</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="H52" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J52" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="H52" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J52" s="6" t="s">
+      <c r="K52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="19">
+        <v>1</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="K52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="15">
-        <v>1</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="D53" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L53" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="19">
+        <v>1</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="15">
-        <v>1</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>421</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="15">
-        <v>1</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>333</v>
+      <c r="A55" s="19">
+        <v>1</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="C55" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="6" t="s">
@@ -5321,40 +5339,40 @@
         <v>92</v>
       </c>
       <c r="H55" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I55" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I55" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="J55" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="19">
+        <v>2</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="K55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="15">
-        <v>2</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="D56" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="H56" s="6" t="s">
         <v>132</v>
@@ -5363,34 +5381,34 @@
         <v>126</v>
       </c>
       <c r="J56" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="K56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L56" s="6" t="s">
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="19">
+        <v>1</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="15">
-        <v>1</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C57" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="H57" s="6" t="s">
         <v>125</v>
@@ -5399,63 +5417,63 @@
         <v>133</v>
       </c>
       <c r="J57" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="19">
+        <v>5</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="K57" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L57" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="15">
-        <v>5</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>255</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J58" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="K58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="19">
+        <v>3</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="H58" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J58" s="6" t="s">
+      <c r="D59" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="15">
-        <v>3</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="6" t="s">
@@ -5465,76 +5483,76 @@
         <v>88</v>
       </c>
       <c r="H59" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I59" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I59" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="J59" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K59" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="15">
-        <v>1</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>333</v>
+      <c r="A60" s="19">
+        <v>1</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>126</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K60" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="15">
-        <v>1</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>339</v>
+      <c r="A61" s="19">
+        <v>1</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>337</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H61" s="6" t="s">
         <v>125</v>
@@ -5543,70 +5561,70 @@
         <v>126</v>
       </c>
       <c r="J61" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="19">
+        <v>2</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="K61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="15">
-        <v>2</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>270</v>
-      </c>
       <c r="D62" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>125</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J62" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="19">
+        <v>2</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="K62" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L62" s="6" t="s">
+      <c r="D63" s="6" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="15">
-        <v>2</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>276</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>125</v>
@@ -5615,357 +5633,357 @@
         <v>51</v>
       </c>
       <c r="J63" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="19">
+        <v>1</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L63" s="6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="15">
-        <v>1</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="J64" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="I64" s="6" t="s">
+      <c r="K64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L64" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="J64" s="6" t="s">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="19">
+        <v>1</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="K64" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L64" s="6" t="s">
+      <c r="D65" s="6" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="15">
-        <v>1</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J65" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="19">
+        <v>1</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="K65" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L65" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="15">
-        <v>1</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="I66" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="J66" s="6" t="s">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="19">
+        <v>1</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="K66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L66" s="6" t="s">
+      <c r="D67" s="6" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="15">
-        <v>1</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>298</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J67" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="19">
+        <v>1</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>300</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="15">
-        <v>1</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>302</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J68" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="19">
+        <v>1</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="15">
-        <v>1</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>306</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="6" t="s">
         <v>68</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="15">
-        <v>1</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>333</v>
+      <c r="A70" s="19">
+        <v>1</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>331</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L70" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="I70" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="J70" s="6" t="s">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="19">
+        <v>1</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="K70" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L70" s="6" t="s">
+      <c r="D71" s="6" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="15">
-        <v>1</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>315</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>105</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K71" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="15">
+      <c r="A72" s="19">
         <v>3</v>
       </c>
-      <c r="B72" s="20" t="s">
-        <v>336</v>
+      <c r="B72" s="17" t="s">
+        <v>334</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="19">
+        <v>1</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L72" s="11" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="15">
-        <v>1</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>321</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K73" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="18"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -5978,14 +5996,14 @@
       <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="18"/>
+      <c r="B75" s="15"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
@@ -5993,17 +6011,17 @@
       <c r="L75" s="3"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="25">
+      <c r="A76" s="21">
         <v>3</v>
       </c>
-      <c r="B76" s="20">
+      <c r="B76" s="17">
         <v>3</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>9</v>
@@ -6013,33 +6031,33 @@
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="J76" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="I76" s="6" t="s">
+      <c r="K76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="J76" s="6" t="s">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="21">
+        <v>1</v>
+      </c>
+      <c r="B77" s="17">
+        <v>1</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="K76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L76" s="6" t="s">
+      <c r="D77" s="6" t="s">
         <v>438</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="25">
-        <v>1</v>
-      </c>
-      <c r="B77" s="20">
-        <v>1</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>440</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>11</v>
@@ -6049,795 +6067,795 @@
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J77" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="21">
+        <v>2</v>
+      </c>
+      <c r="B78" s="17">
+        <v>2</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="K77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L77" s="6" t="s">
+      <c r="D78" s="6" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="25">
-        <v>2</v>
-      </c>
-      <c r="B78" s="20">
-        <v>2</v>
-      </c>
-      <c r="C78" s="6" t="s">
+      <c r="E78" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="F78" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>447</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I78" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L78" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="J78" s="6" t="s">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="K78" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L78" s="6" t="s">
+      <c r="D79" s="6" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="25" t="s">
-        <v>652</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>652</v>
-      </c>
-      <c r="C79" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="F79" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>454</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="J79" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="I79" s="6" t="s">
+      <c r="K79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="J79" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L79" s="6" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="25" t="s">
-        <v>651</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>651</v>
+      <c r="A80" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>649</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L80" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="I80" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="J80" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L80" s="6" t="s">
-        <v>644</v>
-      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="25">
+      <c r="A81" s="21">
         <v>6</v>
       </c>
-      <c r="B81" s="20">
+      <c r="B81" s="17">
         <v>6</v>
       </c>
       <c r="C81" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>461</v>
-      </c>
       <c r="F81" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="J81" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="K81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="J81" s="6" t="s">
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="21">
+        <v>4</v>
+      </c>
+      <c r="B82" s="17">
+        <v>4</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="K81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L81" s="6" t="s">
+      <c r="D82" s="6" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="25">
-        <v>4</v>
-      </c>
-      <c r="B82" s="20">
-        <v>4</v>
-      </c>
-      <c r="C82" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>468</v>
-      </c>
       <c r="F82" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="I82" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J82" s="6" t="s">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="21">
+        <v>2</v>
+      </c>
+      <c r="B83" s="17">
+        <v>2</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="K82" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L82" s="6" t="s">
+      <c r="D83" s="6" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="25">
-        <v>2</v>
-      </c>
-      <c r="B83" s="20">
-        <v>2</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>473</v>
-      </c>
       <c r="E83" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J83" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="21">
+        <v>1</v>
+      </c>
+      <c r="B84" s="17">
+        <v>1</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="K83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L83" s="6" t="s">
+      <c r="D84" s="6" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="25">
-        <v>1</v>
-      </c>
-      <c r="B84" s="20">
-        <v>1</v>
-      </c>
-      <c r="C84" s="6" t="s">
+      <c r="E84" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>479</v>
-      </c>
       <c r="F84" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="K84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L84" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="I84" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J84" s="6" t="s">
+    </row>
+    <row r="85" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="21">
+        <v>7</v>
+      </c>
+      <c r="B85" s="17">
+        <v>7</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="K84" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L84" s="6" t="s">
+      <c r="D85" s="6" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="25">
-        <v>7</v>
-      </c>
-      <c r="B85" s="20">
-        <v>7</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>484</v>
-      </c>
       <c r="E85" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L85" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="I85" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="J85" s="6" t="s">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="21">
+        <v>1</v>
+      </c>
+      <c r="B86" s="17">
+        <v>1</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="K85" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L85" s="5" t="s">
+      <c r="D86" s="6" t="s">
         <v>487</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="25">
-        <v>1</v>
-      </c>
-      <c r="B86" s="20">
-        <v>1</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>489</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L86" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="I86" s="6" t="s">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="21">
+        <v>1</v>
+      </c>
+      <c r="B87" s="17">
+        <v>1</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="J86" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L86" s="6" t="s">
+      <c r="D87" s="6" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="25">
-        <v>1</v>
-      </c>
-      <c r="B87" s="20">
-        <v>1</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="J87" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="I87" s="6" t="s">
+      <c r="K87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="J87" s="6" t="s">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="21">
+        <v>1</v>
+      </c>
+      <c r="B88" s="17">
+        <v>1</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="K87" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L87" s="6" t="s">
+      <c r="D88" s="6" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="25">
-        <v>1</v>
-      </c>
-      <c r="B88" s="20">
-        <v>1</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>502</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="J88" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L88" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="I88" s="6" t="s">
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="21">
+        <v>2</v>
+      </c>
+      <c r="B89" s="17">
+        <v>2</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="J88" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L88" s="6" t="s">
+      <c r="D89" s="6" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="25">
-        <v>2</v>
-      </c>
-      <c r="B89" s="20">
-        <v>2</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="I89" s="6" t="s">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="21">
+        <v>2</v>
+      </c>
+      <c r="B90" s="17">
+        <v>2</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="J89" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" s="6" t="s">
+      <c r="D90" s="6" t="s">
         <v>512</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="25">
-        <v>2</v>
-      </c>
-      <c r="B90" s="20">
-        <v>2</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>514</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="J90" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L90" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="I90" s="6" t="s">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="21">
+        <v>2</v>
+      </c>
+      <c r="B91" s="17">
+        <v>2</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="J90" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="K90" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L90" s="6" t="s">
+      <c r="D91" s="6" t="s">
         <v>518</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="25">
-        <v>2</v>
-      </c>
-      <c r="B91" s="20">
-        <v>2</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>520</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="I91" s="6" t="s">
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="21">
+        <v>1</v>
+      </c>
+      <c r="B92" s="17">
+        <v>1</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="J91" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L91" s="6" t="s">
+      <c r="D92" s="6" t="s">
         <v>524</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="25">
-        <v>1</v>
-      </c>
-      <c r="B92" s="20">
-        <v>1</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>526</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="I92" s="6" t="s">
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="21">
+        <v>4</v>
+      </c>
+      <c r="B93" s="17">
+        <v>4</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="J92" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="K92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L92" s="6" t="s">
+      <c r="D93" s="6" t="s">
         <v>530</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="25">
-        <v>4</v>
-      </c>
-      <c r="B93" s="20">
-        <v>4</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>532</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="21">
+        <v>5</v>
+      </c>
+      <c r="B94" s="17">
+        <v>5</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="I93" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L93" s="6" t="s">
+      <c r="D94" s="6" t="s">
         <v>535</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="25">
-        <v>5</v>
-      </c>
-      <c r="B94" s="20">
-        <v>5</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>537</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="21">
+        <v>1</v>
+      </c>
+      <c r="B95" s="17">
+        <v>1</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="I94" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="J94" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="K94" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L94" s="6" t="s">
+      <c r="D95" s="6" t="s">
         <v>540</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="25">
-        <v>1</v>
-      </c>
-      <c r="B95" s="20">
-        <v>1</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>542</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="21">
+        <v>1</v>
+      </c>
+      <c r="B96" s="17">
+        <v>1</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="I95" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="J95" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L95" s="6" t="s">
+      <c r="D96" s="6" t="s">
         <v>545</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="25">
-        <v>1</v>
-      </c>
-      <c r="B96" s="20">
-        <v>1</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>547</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L96" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="I96" s="6" t="s">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="21">
+        <v>2</v>
+      </c>
+      <c r="B97" s="17">
+        <v>2</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="J96" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="K96" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L96" s="6" t="s">
+      <c r="D97" s="6" t="s">
         <v>551</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="25">
-        <v>2</v>
-      </c>
-      <c r="B97" s="20">
-        <v>2</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>553</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="I97" s="6" t="s">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="21">
+        <v>1</v>
+      </c>
+      <c r="B98" s="17">
+        <v>1</v>
+      </c>
+      <c r="C98" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="J97" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L97" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="25">
-        <v>1</v>
-      </c>
-      <c r="B98" s="20">
-        <v>1</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>559</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="I98" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L98" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="I98" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="J98" s="6" t="s">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="21">
+        <v>1</v>
+      </c>
+      <c r="B99" s="17">
+        <v>1</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="K98" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L98" s="6" t="s">
+      <c r="D99" s="6" t="s">
         <v>563</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="25">
-        <v>1</v>
-      </c>
-      <c r="B99" s="20">
-        <v>1</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>565</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="I99" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="J99" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="I99" s="6" t="s">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="21">
+        <v>1</v>
+      </c>
+      <c r="B100" s="17">
+        <v>1</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="J99" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L99" s="6" t="s">
+      <c r="D100" s="6" t="s">
         <v>569</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="25">
-        <v>1</v>
-      </c>
-      <c r="B100" s="20">
-        <v>1</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>571</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="6" t="s">
@@ -6847,33 +6865,33 @@
         <v>86</v>
       </c>
       <c r="H100" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="J100" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="I100" s="6" t="s">
+      <c r="K100" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L100" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="J100" s="6" t="s">
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="21">
+        <v>1</v>
+      </c>
+      <c r="B101" s="17">
+        <v>1</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="K100" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L100" s="6" t="s">
+      <c r="D101" s="6" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="25">
-        <v>1</v>
-      </c>
-      <c r="B101" s="20">
-        <v>1</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>577</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="6" t="s">
@@ -6883,69 +6901,69 @@
         <v>88</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J101" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="K101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="21">
+        <v>1</v>
+      </c>
+      <c r="B102" s="17">
+        <v>1</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="K101" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L101" s="6" t="s">
+      <c r="D102" s="6" t="s">
         <v>579</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="25">
-        <v>1</v>
-      </c>
-      <c r="B102" s="20">
-        <v>1</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>581</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="J102" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="K102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="H102" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="J102" s="6" t="s">
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="21">
+        <v>1</v>
+      </c>
+      <c r="B103" s="17">
+        <v>1</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="K102" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L102" s="6" t="s">
+      <c r="D103" s="6" t="s">
         <v>585</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="25">
-        <v>1</v>
-      </c>
-      <c r="B103" s="20">
-        <v>1</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>587</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="6" t="s">
@@ -6955,105 +6973,105 @@
         <v>90</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J103" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="21">
+        <v>2</v>
+      </c>
+      <c r="B104" s="17">
+        <v>2</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="K103" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L103" s="6" t="s">
+      <c r="D104" s="6" t="s">
         <v>589</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="25">
-        <v>2</v>
-      </c>
-      <c r="B104" s="20">
-        <v>2</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>591</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="I104" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="G104" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="H104" s="6" t="s">
+      <c r="J104" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="I104" s="6" t="s">
+      <c r="K104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="J104" s="6" t="s">
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="21">
+        <v>1</v>
+      </c>
+      <c r="B105" s="17">
+        <v>1</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="K104" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L104" s="6" t="s">
+      <c r="D105" s="6" t="s">
         <v>596</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="25">
-        <v>1</v>
-      </c>
-      <c r="B105" s="20">
-        <v>1</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>598</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="I105" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="G105" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="H105" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="I105" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="J105" s="6" t="s">
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="21">
+        <v>1</v>
+      </c>
+      <c r="B106" s="17">
+        <v>1</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="K105" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L105" s="6" t="s">
+      <c r="D106" s="6" t="s">
         <v>601</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="25">
-        <v>1</v>
-      </c>
-      <c r="B106" s="20">
-        <v>1</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>603</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="6" t="s">
@@ -7063,240 +7081,261 @@
         <v>92</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J106" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="K106" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="K106" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L106" s="6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="25">
-        <v>2</v>
-      </c>
-      <c r="B107" s="20">
-        <v>2</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>606</v>
-      </c>
       <c r="D107" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J107" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="21">
+        <v>2</v>
+      </c>
+      <c r="B108" s="17">
+        <v>2</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="23" t="s">
         <v>635</v>
-      </c>
-      <c r="K107" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L107" s="6" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="25">
-        <v>2</v>
-      </c>
-      <c r="B108" s="20">
-        <v>2</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="E108" s="5"/>
-      <c r="F108" s="13" t="s">
-        <v>637</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="J108" s="13" t="s">
-        <v>637</v>
+      <c r="J108" s="23" t="s">
+        <v>635</v>
       </c>
       <c r="K108" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="25">
-        <v>1</v>
-      </c>
-      <c r="B109" s="20">
-        <v>1</v>
+      <c r="A109" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>650</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>611</v>
+        <v>661</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E109" s="5"/>
-      <c r="F109" s="6" t="s">
-        <v>613</v>
+      <c r="F109" s="23" t="s">
+        <v>662</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="6" t="s">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="J109" s="6" t="s">
-        <v>614</v>
+        <v>105</v>
+      </c>
+      <c r="J109" s="23" t="s">
+        <v>662</v>
       </c>
       <c r="K109" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>616</v>
+        <v>664</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="25">
-        <v>1</v>
-      </c>
-      <c r="B110" s="20">
+      <c r="A110" s="21">
+        <v>1</v>
+      </c>
+      <c r="B110" s="17">
         <v>1</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="6" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="6" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="K110" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="25">
-        <v>1</v>
-      </c>
-      <c r="B111" s="20">
+      <c r="A111" s="21">
+        <v>1</v>
+      </c>
+      <c r="B111" s="17">
         <v>1</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="6" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="6" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="K111" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="195" x14ac:dyDescent="0.25">
-      <c r="A112" s="25">
-        <v>26</v>
-      </c>
-      <c r="B112" s="20">
-        <v>26</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="21">
+        <v>1</v>
+      </c>
+      <c r="B112" s="17">
+        <v>1</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>621</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="6" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A113" s="21">
+        <v>26</v>
+      </c>
+      <c r="B113" s="17">
+        <v>26</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="E113" s="5"/>
+      <c r="F113" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="G113" s="5"/>
+      <c r="H113" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="I113" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="J113" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="I112" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="J112" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="K112" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="L112" s="6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B113" s="18"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B114" s="18"/>
+      <c r="K113" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="15"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -7308,50 +7347,83 @@
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B115" s="21" t="s">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="15"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="18" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B118" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="D118" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B117" s="21" t="s">
-        <v>646</v>
-      </c>
-      <c r="D117" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B118" s="21" t="s">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="D119" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
         <v>655</v>
       </c>
-      <c r="D118" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D119" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D120" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D122" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D123" t="s">
-        <v>658</v>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>667</v>
       </c>
     </row>
   </sheetData>

--- a/Main Board/BOM-MB-Rev2b.xlsx
+++ b/Main Board/BOM-MB-Rev2b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/Main Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{1C6F0564-6299-44DA-824A-119907CB7C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A2A6F7-DC5A-4771-BFB1-06B80FAE93E5}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{1C6F0564-6299-44DA-824A-119907CB7C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B088A6B8-B995-47AE-9960-8169016DA3F5}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="540" windowWidth="21600" windowHeight="14055" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
+    <workbookView xWindow="3240" yWindow="1860" windowWidth="21600" windowHeight="14055" xr2:uid="{D0F92D7D-FA28-431C-AE5F-3583BE58530B}"/>
   </bookViews>
   <sheets>
     <sheet name="MainBoardRev2b" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="675">
   <si>
     <t>Quantity</t>
   </si>
@@ -875,9 +875,6 @@
     <t>U10</t>
   </si>
   <si>
-    <t>IC REG LDO ADJ 0.5A TO252-3</t>
-  </si>
-  <si>
     <t>LM317</t>
   </si>
   <si>
@@ -887,12 +884,6 @@
     <t>Texas Instruments</t>
   </si>
   <si>
-    <t>LM317MKVURG3</t>
-  </si>
-  <si>
-    <t>296-19495-1-ND</t>
-  </si>
-  <si>
     <t>U11</t>
   </si>
   <si>
@@ -2953,6 +2944,24 @@
   </si>
   <si>
     <t>Corrected Digikey p/n for R118</t>
+  </si>
+  <si>
+    <t>IC REG LDO ADJ 1.5A D2PAK</t>
+  </si>
+  <si>
+    <t>D2PAK</t>
+  </si>
+  <si>
+    <t>LM317D2T-TR</t>
+  </si>
+  <si>
+    <t>497-1571-1-ND</t>
+  </si>
+  <si>
+    <t>Aug-2</t>
+  </si>
+  <si>
+    <t>Changed p/n for U10 to stocked parts</t>
   </si>
 </sst>
 </file>
@@ -3430,10 +3439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141DE95B-5139-4F8A-9CCE-A913B8066809}">
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="B112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3457,7 +3466,7 @@
       <c r="B1" s="14"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -3483,7 +3492,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3491,7 +3500,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -3503,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
@@ -3512,13 +3521,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>4</v>
@@ -3541,10 +3550,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>14</v>
@@ -3569,7 +3578,7 @@
         <v>10</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -3577,10 +3586,10 @@
         <v>32</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>18</v>
@@ -3605,7 +3614,7 @@
         <v>10</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="135" x14ac:dyDescent="0.25">
@@ -3613,10 +3622,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>37</v>
@@ -3641,15 +3650,15 @@
         <v>10</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>23</v>
@@ -3685,7 +3694,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>28</v>
@@ -3721,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>34</v>
@@ -3749,7 +3758,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3757,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>39</v>
@@ -3785,7 +3794,7 @@
         <v>10</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3793,7 +3802,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>42</v>
@@ -3821,7 +3830,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3829,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>46</v>
@@ -3857,7 +3866,7 @@
         <v>10</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3865,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>49</v>
@@ -3901,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>54</v>
@@ -3929,7 +3938,7 @@
         <v>10</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3937,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>58</v>
@@ -3965,7 +3974,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -3973,13 +3982,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>62</v>
@@ -3992,7 +4001,7 @@
         <v>64</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>63</v>
@@ -4009,10 +4018,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>66</v>
@@ -4035,7 +4044,7 @@
         <v>10</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -4043,13 +4052,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
@@ -4069,7 +4078,7 @@
         <v>10</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -4077,7 +4086,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>75</v>
@@ -4103,7 +4112,7 @@
         <v>10</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -4111,7 +4120,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>80</v>
@@ -4130,7 +4139,7 @@
         <v>68</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J21" s="6" t="s">
         <v>83</v>
@@ -4147,7 +4156,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>93</v>
@@ -4181,7 +4190,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>98</v>
@@ -4215,7 +4224,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>106</v>
@@ -4241,7 +4250,7 @@
         <v>10</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -4249,7 +4258,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>111</v>
@@ -4283,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>116</v>
@@ -4317,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>121</v>
@@ -4345,7 +4354,7 @@
         <v>10</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -4353,20 +4362,20 @@
         <v>2</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>142</v>
@@ -4375,13 +4384,13 @@
         <v>126</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -4389,7 +4398,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>128</v>
@@ -4417,7 +4426,7 @@
         <v>10</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -4425,17 +4434,17 @@
         <v>2</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
@@ -4445,13 +4454,13 @@
         <v>126</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="K30" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -4459,7 +4468,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>135</v>
@@ -4495,20 +4504,20 @@
         <v>1</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>142</v>
@@ -4517,13 +4526,13 @@
         <v>143</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -4531,13 +4540,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>139</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
@@ -4567,13 +4576,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>146</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
@@ -4603,13 +4612,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
@@ -4631,7 +4640,7 @@
         <v>10</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -4639,13 +4648,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>152</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
@@ -4675,7 +4684,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>157</v>
@@ -4703,7 +4712,7 @@
         <v>10</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -4711,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>162</v>
@@ -4739,7 +4748,7 @@
         <v>10</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4747,10 +4756,10 @@
         <v>6</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>167</v>
@@ -4775,7 +4784,7 @@
         <v>10</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -4783,7 +4792,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>171</v>
@@ -4819,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>177</v>
@@ -4847,7 +4856,7 @@
         <v>10</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -4855,10 +4864,10 @@
         <v>9</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>182</v>
@@ -4883,7 +4892,7 @@
         <v>10</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -4891,7 +4900,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>184</v>
@@ -4919,7 +4928,7 @@
         <v>10</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -4927,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>189</v>
@@ -4955,7 +4964,7 @@
         <v>10</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -4963,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>194</v>
@@ -4999,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>201</v>
@@ -5035,7 +5044,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>207</v>
@@ -5063,7 +5072,7 @@
         <v>10</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -5071,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>212</v>
@@ -5107,7 +5116,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>216</v>
@@ -5135,7 +5144,7 @@
         <v>10</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -5143,7 +5152,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>221</v>
@@ -5171,7 +5180,7 @@
         <v>10</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -5179,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>226</v>
@@ -5215,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>232</v>
@@ -5243,7 +5252,7 @@
         <v>10</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -5251,17 +5260,17 @@
         <v>1</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>237</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>238</v>
@@ -5273,13 +5282,13 @@
         <v>126</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -5287,17 +5296,17 @@
         <v>1</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>239</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>240</v>
@@ -5309,13 +5318,13 @@
         <v>126</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -5323,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>241</v>
@@ -5351,7 +5360,7 @@
         <v>10</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -5359,13 +5368,13 @@
         <v>2</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>244</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="6" t="s">
@@ -5395,7 +5404,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>249</v>
@@ -5423,7 +5432,7 @@
         <v>10</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -5431,7 +5440,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>252</v>
@@ -5459,7 +5468,7 @@
         <v>10</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -5467,7 +5476,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>257</v>
@@ -5495,7 +5504,7 @@
         <v>10</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -5503,17 +5512,17 @@
         <v>1</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>260</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G60" s="6" t="s">
         <v>261</v>
@@ -5525,13 +5534,13 @@
         <v>126</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K60" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -5539,7 +5548,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>262</v>
@@ -5575,13 +5584,13 @@
         <v>2</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>268</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="6" t="s">
@@ -5611,7 +5620,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>273</v>
@@ -5639,7 +5648,7 @@
         <v>10</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -5647,33 +5656,33 @@
         <v>1</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>278</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>279</v>
+        <v>669</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="I64" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="I64" s="6" t="s">
-        <v>282</v>
-      </c>
       <c r="J64" s="6" t="s">
-        <v>283</v>
+        <v>671</v>
       </c>
       <c r="K64" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>284</v>
+        <v>672</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -5681,33 +5690,33 @@
         <v>1</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K65" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -5715,33 +5724,33 @@
         <v>1</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K66" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -5749,33 +5758,33 @@
         <v>1</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K67" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -5783,33 +5792,33 @@
         <v>1</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K68" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -5817,33 +5826,33 @@
         <v>1</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="6" t="s">
         <v>68</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K69" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L69" s="11" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -5851,33 +5860,33 @@
         <v>1</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K70" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -5885,33 +5894,33 @@
         <v>1</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>105</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K71" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -5919,33 +5928,33 @@
         <v>3</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K72" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L72" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -5953,33 +5962,33 @@
         <v>1</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K73" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -6003,7 +6012,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
@@ -6018,10 +6027,10 @@
         <v>3</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>9</v>
@@ -6031,19 +6040,19 @@
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L76" s="6" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -6054,10 +6063,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>11</v>
@@ -6067,19 +6076,19 @@
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K77" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -6090,102 +6099,102 @@
         <v>2</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>445</v>
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K78" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C79" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F79" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L79" s="6" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="K80" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -6196,32 +6205,32 @@
         <v>6</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="K81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L81" s="6" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -6232,32 +6241,32 @@
         <v>4</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K82" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -6268,32 +6277,32 @@
         <v>2</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K83" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -6304,32 +6313,32 @@
         <v>1</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K84" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6340,32 +6349,32 @@
         <v>7</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K85" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -6376,30 +6385,30 @@
         <v>1</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J86" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L86" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L86" s="6" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -6410,30 +6419,30 @@
         <v>1</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="I87" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="6" t="s">
         <v>495</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L87" s="6" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -6444,30 +6453,30 @@
         <v>1</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="6" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J88" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="K88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L88" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L88" s="6" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -6478,30 +6487,30 @@
         <v>2</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="6" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J89" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -6512,30 +6521,30 @@
         <v>2</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="J90" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="K90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L90" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="K90" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L90" s="6" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -6546,30 +6555,30 @@
         <v>2</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J91" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="K91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L91" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L91" s="6" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -6580,30 +6589,30 @@
         <v>1</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="6" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="J92" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" s="6" t="s">
         <v>525</v>
-      </c>
-      <c r="K92" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L92" s="6" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -6614,30 +6623,30 @@
         <v>4</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="6" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="K93" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -6648,30 +6657,30 @@
         <v>5</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="K94" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -6682,30 +6691,30 @@
         <v>1</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K95" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -6716,30 +6725,30 @@
         <v>1</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="J96" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="K96" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L96" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="K96" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L96" s="6" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -6750,30 +6759,30 @@
         <v>2</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="J97" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="6" t="s">
         <v>552</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L97" s="6" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -6784,30 +6793,30 @@
         <v>1</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K98" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -6818,30 +6827,30 @@
         <v>1</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="J99" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" s="6" t="s">
         <v>564</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L99" s="6" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -6852,10 +6861,10 @@
         <v>1</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="6" t="s">
@@ -6865,19 +6874,19 @@
         <v>86</v>
       </c>
       <c r="H100" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L100" s="6" t="s">
         <v>570</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L100" s="6" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -6888,10 +6897,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="6" t="s">
@@ -6901,19 +6910,19 @@
         <v>88</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="K101" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -6924,32 +6933,32 @@
         <v>1</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L102" s="6" t="s">
         <v>580</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="J102" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="K102" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L102" s="6" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -6960,10 +6969,10 @@
         <v>1</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="6" t="s">
@@ -6973,19 +6982,19 @@
         <v>90</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="K103" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -6996,32 +7005,32 @@
         <v>2</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="J104" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="G104" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="H104" s="6" t="s">
+      <c r="K104" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L104" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="J104" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="K104" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L104" s="6" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -7032,32 +7041,32 @@
         <v>1</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="K105" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -7068,10 +7077,10 @@
         <v>1</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="6" t="s">
@@ -7081,53 +7090,53 @@
         <v>92</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="K106" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="6" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>73</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -7138,64 +7147,64 @@
         <v>2</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="23" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>105</v>
       </c>
       <c r="J108" s="23" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="K108" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B109" s="17" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="23" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="6" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>105</v>
       </c>
       <c r="J109" s="23" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="K109" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -7206,30 +7215,30 @@
         <v>1</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E110" s="5"/>
       <c r="F110" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="K110" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -7240,30 +7249,30 @@
         <v>1</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="6" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J111" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L111" s="6" t="s">
         <v>617</v>
-      </c>
-      <c r="K111" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L111" s="6" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -7274,30 +7283,30 @@
         <v>1</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="6" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="K112" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="195" x14ac:dyDescent="0.25">
@@ -7308,30 +7317,30 @@
         <v>26</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="6" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="6" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -7362,68 +7371,76 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B116" s="18" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B118" s="18" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D118" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B119" s="18" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D119" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>667</v>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="D129" t="s">
+        <v>674</v>
       </c>
     </row>
   </sheetData>
